--- a/sengoku-reiden/checklist.xlsx
+++ b/sengoku-reiden/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sengoku-reiden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDA164E-4BA8-B44F-8613-70C7DC4F62C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D77738-E6B1-E642-8B39-A5569060B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{892057C8-A51B-5B41-A479-01FCA04B490B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>rulebook</t>
+  </si>
+  <si>
+    <t>幕末霊異伝 MI・BU・RO</t>
+  </si>
+  <si>
+    <t>Bakumatsu Ryoiden</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>bakumatsu-ryoiden.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D45E2D-BEA7-9D49-9DC0-179321E97579}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +492,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
